--- a/src/test/data/anno_SheetName_template.xlsx
+++ b/src/test/data/anno_SheetName_template.xlsx
@@ -4,20 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="シート名（１）" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId4"/>
+    <sheet name="メソッドに付与したアノテーション" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>アノテーション「@XlsSheet」のテスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>アノテーション「@XlsSheet」のテスト</t>
     <phoneticPr fontId="1"/>
@@ -378,7 +383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -399,10 +404,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -432,4 +445,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>